--- a/fuzzy_stability_analysis/results/fuz_stability_link/XS/fuzziness_quantiles.xlsx
+++ b/fuzzy_stability_analysis/results/fuz_stability_link/XS/fuzziness_quantiles.xlsx
@@ -27,22 +27,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="130">
   <si>
-    <t>st_0.4_const_ass</t>
-  </si>
-  <si>
-    <t>st_0.6_const_ass</t>
-  </si>
-  <si>
     <t>st_0.8_const_ass</t>
   </si>
   <si>
     <t>st_1_const_ass</t>
   </si>
   <si>
-    <t>st_0.4_thr_0.5</t>
-  </si>
-  <si>
-    <t>st_0.6_thr_0.5</t>
+    <t>st_1.2_const_ass</t>
+  </si>
+  <si>
+    <t>st_1.4_const_ass</t>
   </si>
   <si>
     <t>st_0.8_thr_0.5</t>
@@ -51,6 +45,12 @@
     <t>st_1_thr_0.5</t>
   </si>
   <si>
+    <t>st_1.2_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.4_thr_0.5</t>
+  </si>
+  <si>
     <t>n_obs</t>
   </si>
   <si>
@@ -327,7 +327,7 @@
     <t>(0.912, 0.974]</t>
   </si>
   <si>
-    <t>(-0.0009367000000000001, 0.127]</t>
+    <t>(-0.0009373000000000001, 0.127]</t>
   </si>
   <si>
     <t>(0.127, 0.232]</t>
@@ -387,7 +387,7 @@
     <t>(0.625, 0.86]</t>
   </si>
   <si>
-    <t>(-0.000663, 0.0585]</t>
+    <t>(-0.0006640000000000001, 0.0585]</t>
   </si>
   <si>
     <t>(0.0585, 0.0914]</t>
@@ -821,22 +821,22 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="F2">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G2">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H2">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I2">
-        <v>0.987</v>
+        <v>0.952</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -850,25 +850,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E3">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F3">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G3">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H3">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I3">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -885,22 +885,22 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G4">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H4">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I4">
-        <v>0.987</v>
+        <v>0.952</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -917,22 +917,22 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G5">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H5">
-        <v>0.992</v>
+        <v>0.974</v>
       </c>
       <c r="I5">
-        <v>0.987</v>
+        <v>0.949</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -946,25 +946,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E6">
-        <v>0.998</v>
+        <v>0.982</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G6">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="H6">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="I6">
-        <v>0.985</v>
+        <v>0.946</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -978,25 +978,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.982</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="H7">
-        <v>0.992</v>
+        <v>0.97</v>
       </c>
       <c r="I7">
-        <v>0.985</v>
+        <v>0.944</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -1007,28 +1007,28 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D8">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="E8">
-        <v>0.993</v>
+        <v>0.966</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G8">
-        <v>0.996</v>
+        <v>0.981</v>
       </c>
       <c r="H8">
-        <v>0.992</v>
+        <v>0.962</v>
       </c>
       <c r="I8">
-        <v>0.981</v>
+        <v>0.93</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -1039,28 +1039,28 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D9">
-        <v>0.997</v>
+        <v>0.976</v>
       </c>
       <c r="E9">
+        <v>0.954</v>
+      </c>
+      <c r="F9">
         <v>0.99</v>
       </c>
-      <c r="F9">
-        <v>0.997</v>
-      </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.978</v>
       </c>
       <c r="H9">
-        <v>0.99</v>
+        <v>0.954</v>
       </c>
       <c r="I9">
-        <v>0.978</v>
+        <v>0.918</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -1071,28 +1071,28 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="C10">
-        <v>0.999</v>
+        <v>0.983</v>
       </c>
       <c r="D10">
-        <v>0.994</v>
+        <v>0.963</v>
       </c>
       <c r="E10">
-        <v>0.983</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F10">
-        <v>0.997</v>
+        <v>0.987</v>
       </c>
       <c r="G10">
-        <v>0.995</v>
+        <v>0.971</v>
       </c>
       <c r="H10">
-        <v>0.987</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="I10">
-        <v>0.971</v>
+        <v>0.899</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -1103,28 +1103,28 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>0.97</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C11">
-        <v>0.956</v>
+        <v>0.912</v>
       </c>
       <c r="D11">
-        <v>0.9370000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="E11">
-        <v>0.912</v>
+        <v>0.843</v>
       </c>
       <c r="F11">
-        <v>0.967</v>
+        <v>0.929</v>
       </c>
       <c r="G11">
-        <v>0.952</v>
+        <v>0.9</v>
       </c>
       <c r="H11">
-        <v>0.929</v>
+        <v>0.859</v>
       </c>
       <c r="I11">
-        <v>0.9</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="J11">
         <v>124</v>
@@ -1180,28 +1180,28 @@
         <v>100</v>
       </c>
       <c r="B2">
-        <v>0.995</v>
+        <v>0.989</v>
       </c>
       <c r="C2">
-        <v>0.993</v>
+        <v>0.977</v>
       </c>
       <c r="D2">
-        <v>0.989</v>
+        <v>0.954</v>
       </c>
       <c r="E2">
-        <v>0.977</v>
+        <v>0.915</v>
       </c>
       <c r="F2">
-        <v>0.992</v>
+        <v>0.98</v>
       </c>
       <c r="G2">
-        <v>0.988</v>
+        <v>0.964</v>
       </c>
       <c r="H2">
-        <v>0.98</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I2">
-        <v>0.964</v>
+        <v>0.881</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -1212,28 +1212,28 @@
         <v>101</v>
       </c>
       <c r="B3">
-        <v>0.993</v>
+        <v>0.986</v>
       </c>
       <c r="C3">
-        <v>0.991</v>
+        <v>0.976</v>
       </c>
       <c r="D3">
-        <v>0.986</v>
+        <v>0.956</v>
       </c>
       <c r="E3">
-        <v>0.976</v>
+        <v>0.93</v>
       </c>
       <c r="F3">
-        <v>0.99</v>
+        <v>0.977</v>
       </c>
       <c r="G3">
-        <v>0.985</v>
+        <v>0.961</v>
       </c>
       <c r="H3">
-        <v>0.977</v>
+        <v>0.93</v>
       </c>
       <c r="I3">
-        <v>0.961</v>
+        <v>0.887</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -1244,28 +1244,28 @@
         <v>102</v>
       </c>
       <c r="B4">
-        <v>0.989</v>
+        <v>0.98</v>
       </c>
       <c r="C4">
-        <v>0.986</v>
+        <v>0.971</v>
       </c>
       <c r="D4">
-        <v>0.98</v>
+        <v>0.957</v>
       </c>
       <c r="E4">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="F4">
         <v>0.971</v>
       </c>
-      <c r="F4">
-        <v>0.986</v>
-      </c>
       <c r="G4">
-        <v>0.98</v>
+        <v>0.955</v>
       </c>
       <c r="H4">
-        <v>0.971</v>
+        <v>0.929</v>
       </c>
       <c r="I4">
-        <v>0.955</v>
+        <v>0.894</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -1276,28 +1276,28 @@
         <v>103</v>
       </c>
       <c r="B5">
-        <v>0.996</v>
+        <v>0.982</v>
       </c>
       <c r="C5">
-        <v>0.991</v>
+        <v>0.973</v>
       </c>
       <c r="D5">
-        <v>0.982</v>
+        <v>0.96</v>
       </c>
       <c r="E5">
-        <v>0.973</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="F5">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="G5">
-        <v>0.986</v>
+        <v>0.959</v>
       </c>
       <c r="H5">
-        <v>0.974</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="I5">
-        <v>0.959</v>
+        <v>0.905</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -1308,28 +1308,28 @@
         <v>104</v>
       </c>
       <c r="B6">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="C6">
-        <v>0.995</v>
+        <v>0.984</v>
       </c>
       <c r="D6">
-        <v>0.991</v>
+        <v>0.975</v>
       </c>
       <c r="E6">
+        <v>0.96</v>
+      </c>
+      <c r="F6">
         <v>0.984</v>
       </c>
-      <c r="F6">
-        <v>0.994</v>
-      </c>
       <c r="G6">
-        <v>0.991</v>
+        <v>0.973</v>
       </c>
       <c r="H6">
-        <v>0.984</v>
+        <v>0.955</v>
       </c>
       <c r="I6">
-        <v>0.973</v>
+        <v>0.927</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -1340,28 +1340,28 @@
         <v>105</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D7">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="E7">
-        <v>0.996</v>
+        <v>0.977</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.984</v>
       </c>
       <c r="H7">
-        <v>0.992</v>
+        <v>0.97</v>
       </c>
       <c r="I7">
-        <v>0.984</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -1375,25 +1375,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E8">
-        <v>0.998</v>
+        <v>0.983</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G8">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H8">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I8">
-        <v>0.986</v>
+        <v>0.948</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -1407,25 +1407,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E9">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F9">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="G9">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H9">
-        <v>0.994</v>
+        <v>0.975</v>
       </c>
       <c r="I9">
-        <v>0.987</v>
+        <v>0.951</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -1439,25 +1439,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.989</v>
       </c>
       <c r="F10">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="G10">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="H10">
-        <v>0.994</v>
+        <v>0.978</v>
       </c>
       <c r="I10">
-        <v>0.989</v>
+        <v>0.956</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -1474,22 +1474,22 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="F11">
-        <v>0.998</v>
+        <v>0.995</v>
       </c>
       <c r="G11">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
       <c r="H11">
-        <v>0.995</v>
+        <v>0.98</v>
       </c>
       <c r="I11">
-        <v>0.99</v>
+        <v>0.962</v>
       </c>
       <c r="J11">
         <v>124</v>
@@ -1545,28 +1545,28 @@
         <v>110</v>
       </c>
       <c r="B2">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="C2">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="D2">
-        <v>0.994</v>
+        <v>0.974</v>
       </c>
       <c r="E2">
-        <v>0.989</v>
+        <v>0.95</v>
       </c>
       <c r="F2">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="G2">
-        <v>0.991</v>
+        <v>0.974</v>
       </c>
       <c r="H2">
-        <v>0.985</v>
+        <v>0.95</v>
       </c>
       <c r="I2">
-        <v>0.974</v>
+        <v>0.91</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -1577,28 +1577,28 @@
         <v>111</v>
       </c>
       <c r="B3">
-        <v>0.988</v>
+        <v>0.981</v>
       </c>
       <c r="C3">
-        <v>0.984</v>
+        <v>0.974</v>
       </c>
       <c r="D3">
-        <v>0.981</v>
+        <v>0.962</v>
       </c>
       <c r="E3">
-        <v>0.974</v>
+        <v>0.944</v>
       </c>
       <c r="F3">
-        <v>0.984</v>
+        <v>0.97</v>
       </c>
       <c r="G3">
-        <v>0.978</v>
+        <v>0.957</v>
       </c>
       <c r="H3">
-        <v>0.97</v>
+        <v>0.931</v>
       </c>
       <c r="I3">
-        <v>0.957</v>
+        <v>0.896</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -1609,28 +1609,28 @@
         <v>112</v>
       </c>
       <c r="B4">
-        <v>0.991</v>
+        <v>0.982</v>
       </c>
       <c r="C4">
-        <v>0.989</v>
+        <v>0.968</v>
       </c>
       <c r="D4">
-        <v>0.982</v>
+        <v>0.95</v>
       </c>
       <c r="E4">
-        <v>0.968</v>
+        <v>0.923</v>
       </c>
       <c r="F4">
-        <v>0.988</v>
+        <v>0.972</v>
       </c>
       <c r="G4">
-        <v>0.983</v>
+        <v>0.952</v>
       </c>
       <c r="H4">
-        <v>0.972</v>
+        <v>0.923</v>
       </c>
       <c r="I4">
-        <v>0.952</v>
+        <v>0.882</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -1641,28 +1641,28 @@
         <v>113</v>
       </c>
       <c r="B5">
-        <v>0.995</v>
+        <v>0.983</v>
       </c>
       <c r="C5">
-        <v>0.991</v>
+        <v>0.971</v>
       </c>
       <c r="D5">
-        <v>0.983</v>
+        <v>0.95</v>
       </c>
       <c r="E5">
-        <v>0.971</v>
+        <v>0.923</v>
       </c>
       <c r="F5">
-        <v>0.992</v>
+        <v>0.975</v>
       </c>
       <c r="G5">
-        <v>0.986</v>
+        <v>0.959</v>
       </c>
       <c r="H5">
-        <v>0.975</v>
+        <v>0.93</v>
       </c>
       <c r="I5">
-        <v>0.959</v>
+        <v>0.889</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -1673,28 +1673,28 @@
         <v>114</v>
       </c>
       <c r="B6">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="C6">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="D6">
-        <v>0.991</v>
+        <v>0.975</v>
       </c>
       <c r="E6">
-        <v>0.985</v>
+        <v>0.958</v>
       </c>
       <c r="F6">
-        <v>0.994</v>
+        <v>0.984</v>
       </c>
       <c r="G6">
-        <v>0.99</v>
+        <v>0.973</v>
       </c>
       <c r="H6">
-        <v>0.984</v>
+        <v>0.955</v>
       </c>
       <c r="I6">
-        <v>0.973</v>
+        <v>0.924</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -1705,28 +1705,28 @@
         <v>115</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D7">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="E7">
-        <v>0.994</v>
+        <v>0.973</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.982</v>
       </c>
       <c r="H7">
-        <v>0.991</v>
+        <v>0.966</v>
       </c>
       <c r="I7">
-        <v>0.982</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -1740,25 +1740,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="E8">
-        <v>0.998</v>
+        <v>0.982</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G8">
-        <v>0.995</v>
+        <v>0.986</v>
       </c>
       <c r="H8">
-        <v>0.993</v>
+        <v>0.973</v>
       </c>
       <c r="I8">
-        <v>0.986</v>
+        <v>0.946</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -1769,28 +1769,28 @@
         <v>117</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D9">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="E9">
-        <v>0.996</v>
+        <v>0.979</v>
       </c>
       <c r="F9">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G9">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="H9">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="I9">
-        <v>0.985</v>
+        <v>0.946</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -1804,25 +1804,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E10">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="F10">
-        <v>0.998</v>
+        <v>0.995</v>
       </c>
       <c r="G10">
-        <v>0.997</v>
+        <v>0.988</v>
       </c>
       <c r="H10">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="I10">
-        <v>0.988</v>
+        <v>0.956</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -1836,25 +1836,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E11">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="F11">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G11">
-        <v>0.998</v>
+        <v>0.991</v>
       </c>
       <c r="H11">
-        <v>0.997</v>
+        <v>0.981</v>
       </c>
       <c r="I11">
-        <v>0.991</v>
+        <v>0.965</v>
       </c>
       <c r="J11">
         <v>124</v>
@@ -1910,28 +1910,28 @@
         <v>120</v>
       </c>
       <c r="B2">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
       <c r="C2">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="D2">
-        <v>0.995</v>
+        <v>0.98</v>
       </c>
       <c r="E2">
-        <v>0.991</v>
+        <v>0.959</v>
       </c>
       <c r="F2">
-        <v>0.995</v>
+        <v>0.986</v>
       </c>
       <c r="G2">
-        <v>0.992</v>
+        <v>0.976</v>
       </c>
       <c r="H2">
-        <v>0.986</v>
+        <v>0.955</v>
       </c>
       <c r="I2">
-        <v>0.976</v>
+        <v>0.918</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -1942,28 +1942,28 @@
         <v>121</v>
       </c>
       <c r="B3">
-        <v>0.988</v>
+        <v>0.98</v>
       </c>
       <c r="C3">
-        <v>0.984</v>
+        <v>0.972</v>
       </c>
       <c r="D3">
-        <v>0.98</v>
+        <v>0.961</v>
       </c>
       <c r="E3">
-        <v>0.972</v>
+        <v>0.945</v>
       </c>
       <c r="F3">
-        <v>0.984</v>
+        <v>0.969</v>
       </c>
       <c r="G3">
-        <v>0.978</v>
+        <v>0.955</v>
       </c>
       <c r="H3">
-        <v>0.969</v>
+        <v>0.929</v>
       </c>
       <c r="I3">
-        <v>0.955</v>
+        <v>0.895</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -1974,28 +1974,28 @@
         <v>122</v>
       </c>
       <c r="B4">
-        <v>0.988</v>
+        <v>0.977</v>
       </c>
       <c r="C4">
-        <v>0.984</v>
+        <v>0.964</v>
       </c>
       <c r="D4">
-        <v>0.977</v>
+        <v>0.945</v>
       </c>
       <c r="E4">
-        <v>0.964</v>
+        <v>0.92</v>
       </c>
       <c r="F4">
-        <v>0.984</v>
+        <v>0.967</v>
       </c>
       <c r="G4">
-        <v>0.978</v>
+        <v>0.948</v>
       </c>
       <c r="H4">
-        <v>0.967</v>
+        <v>0.919</v>
       </c>
       <c r="I4">
-        <v>0.948</v>
+        <v>0.88</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -2006,28 +2006,28 @@
         <v>123</v>
       </c>
       <c r="B5">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="C5">
-        <v>0.992</v>
+        <v>0.973</v>
       </c>
       <c r="D5">
-        <v>0.985</v>
+        <v>0.952</v>
       </c>
       <c r="E5">
-        <v>0.973</v>
+        <v>0.921</v>
       </c>
       <c r="F5">
-        <v>0.993</v>
+        <v>0.977</v>
       </c>
       <c r="G5">
-        <v>0.987</v>
+        <v>0.96</v>
       </c>
       <c r="H5">
-        <v>0.977</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="I5">
-        <v>0.96</v>
+        <v>0.887</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -2038,28 +2038,28 @@
         <v>124</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="C6">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="D6">
-        <v>0.994</v>
+        <v>0.976</v>
       </c>
       <c r="E6">
+        <v>0.958</v>
+      </c>
+      <c r="F6">
         <v>0.987</v>
       </c>
-      <c r="F6">
-        <v>0.996</v>
-      </c>
       <c r="G6">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="H6">
-        <v>0.987</v>
+        <v>0.956</v>
       </c>
       <c r="I6">
-        <v>0.975</v>
+        <v>0.922</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -2070,28 +2070,28 @@
         <v>125</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D7">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="E7">
-        <v>0.997</v>
+        <v>0.978</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.984</v>
       </c>
       <c r="H7">
-        <v>0.991</v>
+        <v>0.971</v>
       </c>
       <c r="I7">
-        <v>0.984</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -2102,28 +2102,28 @@
         <v>126</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D8">
-        <v>0.998</v>
+        <v>0.989</v>
       </c>
       <c r="E8">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G8">
-        <v>0.996</v>
+        <v>0.983</v>
       </c>
       <c r="H8">
-        <v>0.992</v>
+        <v>0.969</v>
       </c>
       <c r="I8">
-        <v>0.983</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -2134,28 +2134,28 @@
         <v>127</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D9">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="E9">
-        <v>0.997</v>
+        <v>0.979</v>
       </c>
       <c r="F9">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G9">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="H9">
-        <v>0.993</v>
+        <v>0.971</v>
       </c>
       <c r="I9">
-        <v>0.985</v>
+        <v>0.945</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -2166,28 +2166,28 @@
         <v>128</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D10">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="E10">
+        <v>0.982</v>
+      </c>
+      <c r="F10">
         <v>0.996</v>
       </c>
-      <c r="F10">
-        <v>0.999</v>
-      </c>
       <c r="G10">
-        <v>0.998</v>
+        <v>0.988</v>
       </c>
       <c r="H10">
-        <v>0.996</v>
+        <v>0.975</v>
       </c>
       <c r="I10">
-        <v>0.988</v>
+        <v>0.955</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -2201,25 +2201,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E11">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="F11">
-        <v>0.999</v>
+        <v>0.997</v>
       </c>
       <c r="G11">
-        <v>0.998</v>
+        <v>0.991</v>
       </c>
       <c r="H11">
-        <v>0.997</v>
+        <v>0.981</v>
       </c>
       <c r="I11">
-        <v>0.991</v>
+        <v>0.966</v>
       </c>
       <c r="J11">
         <v>124</v>
@@ -2281,22 +2281,22 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="F2">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G2">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H2">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I2">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -2310,25 +2310,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E3">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F3">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G3">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H3">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I3">
-        <v>0.986</v>
+        <v>0.95</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -2342,25 +2342,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E4">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G4">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H4">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I4">
-        <v>0.987</v>
+        <v>0.951</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -2374,25 +2374,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E5">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G5">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H5">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I5">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -2406,25 +2406,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E6">
-        <v>0.997</v>
+        <v>0.984</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G6">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="H6">
-        <v>0.993</v>
+        <v>0.971</v>
       </c>
       <c r="I6">
-        <v>0.985</v>
+        <v>0.946</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -2435,28 +2435,28 @@
         <v>25</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D7">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="E7">
-        <v>0.997</v>
+        <v>0.98</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G7">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="H7">
-        <v>0.992</v>
+        <v>0.969</v>
       </c>
       <c r="I7">
-        <v>0.984</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -2467,28 +2467,28 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D8">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="E8">
-        <v>0.994</v>
+        <v>0.969</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G8">
-        <v>0.995</v>
+        <v>0.981</v>
       </c>
       <c r="H8">
-        <v>0.991</v>
+        <v>0.962</v>
       </c>
       <c r="I8">
-        <v>0.981</v>
+        <v>0.931</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -2499,28 +2499,28 @@
         <v>27</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.989</v>
       </c>
       <c r="D9">
-        <v>0.996</v>
+        <v>0.975</v>
       </c>
       <c r="E9">
+        <v>0.954</v>
+      </c>
+      <c r="F9">
         <v>0.989</v>
       </c>
-      <c r="F9">
-        <v>0.997</v>
-      </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.977</v>
       </c>
       <c r="H9">
-        <v>0.989</v>
+        <v>0.954</v>
       </c>
       <c r="I9">
-        <v>0.977</v>
+        <v>0.919</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -2531,28 +2531,28 @@
         <v>28</v>
       </c>
       <c r="B10">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="C10">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="D10">
-        <v>0.994</v>
+        <v>0.964</v>
       </c>
       <c r="E10">
-        <v>0.984</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F10">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="G10">
-        <v>0.994</v>
+        <v>0.971</v>
       </c>
       <c r="H10">
-        <v>0.986</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="I10">
-        <v>0.971</v>
+        <v>0.9</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -2563,28 +2563,28 @@
         <v>29</v>
       </c>
       <c r="B11">
-        <v>0.971</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="C11">
-        <v>0.957</v>
+        <v>0.914</v>
       </c>
       <c r="D11">
-        <v>0.9389999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="E11">
-        <v>0.914</v>
+        <v>0.842</v>
       </c>
       <c r="F11">
-        <v>0.968</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="G11">
-        <v>0.953</v>
+        <v>0.903</v>
       </c>
       <c r="H11">
-        <v>0.9320000000000001</v>
+        <v>0.861</v>
       </c>
       <c r="I11">
-        <v>0.903</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="J11">
         <v>124</v>
@@ -2643,25 +2643,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E2">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F2">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G2">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H2">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I2">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -2675,25 +2675,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E3">
-        <v>0.998</v>
+        <v>0.986</v>
       </c>
       <c r="F3">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G3">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H3">
-        <v>0.993</v>
+        <v>0.973</v>
       </c>
       <c r="I3">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -2704,28 +2704,28 @@
         <v>32</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D4">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="E4">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G4">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H4">
-        <v>0.992</v>
+        <v>0.973</v>
       </c>
       <c r="I4">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -2739,25 +2739,25 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E5">
-        <v>0.998</v>
+        <v>0.986</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G5">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H5">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I5">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -2771,25 +2771,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E6">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G6">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H6">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I6">
-        <v>0.987</v>
+        <v>0.949</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -2800,28 +2800,28 @@
         <v>35</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D7">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="E7">
-        <v>0.994</v>
+        <v>0.976</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G7">
-        <v>0.996</v>
+        <v>0.982</v>
       </c>
       <c r="H7">
-        <v>0.992</v>
+        <v>0.966</v>
       </c>
       <c r="I7">
-        <v>0.982</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -2832,28 +2832,28 @@
         <v>36</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D8">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="E8">
-        <v>0.995</v>
+        <v>0.972</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
       <c r="G8">
-        <v>0.995</v>
+        <v>0.982</v>
       </c>
       <c r="H8">
-        <v>0.99</v>
+        <v>0.963</v>
       </c>
       <c r="I8">
-        <v>0.982</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -2864,28 +2864,28 @@
         <v>37</v>
       </c>
       <c r="B9">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
       <c r="C9">
-        <v>0.998</v>
+        <v>0.988</v>
       </c>
       <c r="D9">
-        <v>0.995</v>
+        <v>0.975</v>
       </c>
       <c r="E9">
-        <v>0.988</v>
+        <v>0.956</v>
       </c>
       <c r="F9">
-        <v>0.997</v>
+        <v>0.987</v>
       </c>
       <c r="G9">
-        <v>0.994</v>
+        <v>0.975</v>
       </c>
       <c r="H9">
-        <v>0.987</v>
+        <v>0.953</v>
       </c>
       <c r="I9">
-        <v>0.975</v>
+        <v>0.921</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -2896,28 +2896,28 @@
         <v>38</v>
       </c>
       <c r="B10">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="C10">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="D10">
-        <v>0.994</v>
+        <v>0.966</v>
       </c>
       <c r="E10">
-        <v>0.985</v>
+        <v>0.9360000000000001</v>
       </c>
       <c r="F10">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="G10">
-        <v>0.993</v>
+        <v>0.972</v>
       </c>
       <c r="H10">
-        <v>0.986</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="I10">
-        <v>0.972</v>
+        <v>0.9</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -2928,28 +2928,28 @@
         <v>39</v>
       </c>
       <c r="B11">
-        <v>0.972</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="C11">
-        <v>0.959</v>
+        <v>0.917</v>
       </c>
       <c r="D11">
-        <v>0.9419999999999999</v>
+        <v>0.882</v>
       </c>
       <c r="E11">
-        <v>0.917</v>
+        <v>0.842</v>
       </c>
       <c r="F11">
-        <v>0.968</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="G11">
-        <v>0.955</v>
+        <v>0.906</v>
       </c>
       <c r="H11">
-        <v>0.9350000000000001</v>
+        <v>0.864</v>
       </c>
       <c r="I11">
-        <v>0.906</v>
+        <v>0.8139999999999999</v>
       </c>
       <c r="J11">
         <v>124</v>
@@ -3011,22 +3011,22 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="F2">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="G2">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="H2">
-        <v>0.994</v>
+        <v>0.978</v>
       </c>
       <c r="I2">
-        <v>0.989</v>
+        <v>0.957</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -3043,22 +3043,22 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="F3">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="G3">
-        <v>0.996</v>
+        <v>0.989</v>
       </c>
       <c r="H3">
-        <v>0.994</v>
+        <v>0.978</v>
       </c>
       <c r="I3">
-        <v>0.989</v>
+        <v>0.955</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -3072,25 +3072,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E4">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="G4">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H4">
-        <v>0.994</v>
+        <v>0.976</v>
       </c>
       <c r="I4">
-        <v>0.987</v>
+        <v>0.953</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -3101,28 +3101,28 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D5">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="E5">
-        <v>0.997</v>
+        <v>0.982</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G5">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="H5">
-        <v>0.992</v>
+        <v>0.973</v>
       </c>
       <c r="I5">
-        <v>0.985</v>
+        <v>0.947</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -3133,28 +3133,28 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>0.998</v>
+        <v>0.994</v>
       </c>
       <c r="C6">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="D6">
-        <v>0.994</v>
+        <v>0.981</v>
       </c>
       <c r="E6">
-        <v>0.988</v>
+        <v>0.967</v>
       </c>
       <c r="F6">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="G6">
-        <v>0.992</v>
+        <v>0.977</v>
       </c>
       <c r="H6">
-        <v>0.987</v>
+        <v>0.962</v>
       </c>
       <c r="I6">
-        <v>0.977</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -3165,28 +3165,28 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>0.999</v>
+        <v>0.994</v>
       </c>
       <c r="C7">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
       <c r="D7">
-        <v>0.994</v>
+        <v>0.982</v>
       </c>
       <c r="E7">
-        <v>0.99</v>
+        <v>0.967</v>
       </c>
       <c r="F7">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="G7">
-        <v>0.993</v>
+        <v>0.978</v>
       </c>
       <c r="H7">
-        <v>0.987</v>
+        <v>0.962</v>
       </c>
       <c r="I7">
-        <v>0.978</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -3197,28 +3197,28 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>0.996</v>
+        <v>0.985</v>
       </c>
       <c r="C8">
-        <v>0.992</v>
+        <v>0.974</v>
       </c>
       <c r="D8">
-        <v>0.985</v>
+        <v>0.955</v>
       </c>
       <c r="E8">
-        <v>0.974</v>
+        <v>0.93</v>
       </c>
       <c r="F8">
-        <v>0.993</v>
+        <v>0.978</v>
       </c>
       <c r="G8">
-        <v>0.988</v>
+        <v>0.962</v>
       </c>
       <c r="H8">
-        <v>0.978</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="I8">
-        <v>0.962</v>
+        <v>0.898</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -3229,28 +3229,28 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>0.991</v>
+        <v>0.984</v>
       </c>
       <c r="C9">
-        <v>0.989</v>
+        <v>0.972</v>
       </c>
       <c r="D9">
-        <v>0.984</v>
+        <v>0.951</v>
       </c>
       <c r="E9">
-        <v>0.972</v>
+        <v>0.92</v>
       </c>
       <c r="F9">
-        <v>0.988</v>
+        <v>0.976</v>
       </c>
       <c r="G9">
-        <v>0.984</v>
+        <v>0.958</v>
       </c>
       <c r="H9">
-        <v>0.976</v>
+        <v>0.929</v>
       </c>
       <c r="I9">
-        <v>0.958</v>
+        <v>0.884</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -3261,28 +3261,28 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>0.996</v>
+        <v>0.99</v>
       </c>
       <c r="C10">
-        <v>0.994</v>
+        <v>0.981</v>
       </c>
       <c r="D10">
-        <v>0.99</v>
+        <v>0.964</v>
       </c>
       <c r="E10">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="F10">
         <v>0.981</v>
       </c>
-      <c r="F10">
-        <v>0.992</v>
-      </c>
       <c r="G10">
-        <v>0.989</v>
+        <v>0.967</v>
       </c>
       <c r="H10">
-        <v>0.981</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I10">
-        <v>0.967</v>
+        <v>0.901</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -3293,28 +3293,28 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>0.99</v>
+        <v>0.981</v>
       </c>
       <c r="C11">
-        <v>0.987</v>
+        <v>0.972</v>
       </c>
       <c r="D11">
-        <v>0.981</v>
+        <v>0.958</v>
       </c>
       <c r="E11">
-        <v>0.972</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F11">
-        <v>0.987</v>
+        <v>0.97</v>
       </c>
       <c r="G11">
-        <v>0.981</v>
+        <v>0.955</v>
       </c>
       <c r="H11">
-        <v>0.97</v>
+        <v>0.926</v>
       </c>
       <c r="I11">
-        <v>0.955</v>
+        <v>0.891</v>
       </c>
       <c r="J11">
         <v>124</v>
@@ -3373,25 +3373,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E2">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="F2">
-        <v>0.998</v>
+        <v>0.995</v>
       </c>
       <c r="G2">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
       <c r="H2">
-        <v>0.995</v>
+        <v>0.979</v>
       </c>
       <c r="I2">
-        <v>0.99</v>
+        <v>0.961</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -3408,22 +3408,22 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="F3">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="G3">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="H3">
-        <v>0.994</v>
+        <v>0.977</v>
       </c>
       <c r="I3">
-        <v>0.988</v>
+        <v>0.954</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -3437,25 +3437,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E4">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="G4">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H4">
-        <v>0.994</v>
+        <v>0.976</v>
       </c>
       <c r="I4">
-        <v>0.987</v>
+        <v>0.952</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -3466,28 +3466,28 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D5">
-        <v>0.999</v>
+        <v>0.993</v>
       </c>
       <c r="E5">
-        <v>0.998</v>
+        <v>0.982</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G5">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H5">
-        <v>0.992</v>
+        <v>0.973</v>
       </c>
       <c r="I5">
-        <v>0.986</v>
+        <v>0.947</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -3498,28 +3498,28 @@
         <v>54</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="C6">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
       <c r="D6">
-        <v>0.996</v>
+        <v>0.98</v>
       </c>
       <c r="E6">
-        <v>0.99</v>
+        <v>0.963</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.989</v>
       </c>
       <c r="G6">
-        <v>0.994</v>
+        <v>0.978</v>
       </c>
       <c r="H6">
-        <v>0.989</v>
+        <v>0.96</v>
       </c>
       <c r="I6">
-        <v>0.978</v>
+        <v>0.929</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -3530,28 +3530,28 @@
         <v>55</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C7">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="D7">
-        <v>0.997</v>
+        <v>0.979</v>
       </c>
       <c r="E7">
-        <v>0.991</v>
+        <v>0.957</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
       <c r="G7">
-        <v>0.995</v>
+        <v>0.979</v>
       </c>
       <c r="H7">
-        <v>0.99</v>
+        <v>0.959</v>
       </c>
       <c r="I7">
-        <v>0.979</v>
+        <v>0.922</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -3562,28 +3562,28 @@
         <v>56</v>
       </c>
       <c r="B8">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="C8">
-        <v>0.996</v>
+        <v>0.983</v>
       </c>
       <c r="D8">
-        <v>0.991</v>
+        <v>0.965</v>
       </c>
       <c r="E8">
-        <v>0.983</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="F8">
-        <v>0.994</v>
+        <v>0.984</v>
       </c>
       <c r="G8">
-        <v>0.991</v>
+        <v>0.971</v>
       </c>
       <c r="H8">
-        <v>0.984</v>
+        <v>0.946</v>
       </c>
       <c r="I8">
-        <v>0.971</v>
+        <v>0.906</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -3594,28 +3594,28 @@
         <v>57</v>
       </c>
       <c r="B9">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="C9">
-        <v>0.993</v>
+        <v>0.977</v>
       </c>
       <c r="D9">
-        <v>0.988</v>
+        <v>0.958</v>
       </c>
       <c r="E9">
-        <v>0.977</v>
+        <v>0.93</v>
       </c>
       <c r="F9">
-        <v>0.993</v>
+        <v>0.981</v>
       </c>
       <c r="G9">
-        <v>0.988</v>
+        <v>0.965</v>
       </c>
       <c r="H9">
-        <v>0.981</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="I9">
-        <v>0.965</v>
+        <v>0.898</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -3626,28 +3626,28 @@
         <v>58</v>
       </c>
       <c r="B10">
-        <v>0.987</v>
+        <v>0.973</v>
       </c>
       <c r="C10">
-        <v>0.982</v>
+        <v>0.963</v>
       </c>
       <c r="D10">
-        <v>0.973</v>
+        <v>0.947</v>
       </c>
       <c r="E10">
-        <v>0.963</v>
+        <v>0.927</v>
       </c>
       <c r="F10">
-        <v>0.983</v>
+        <v>0.965</v>
       </c>
       <c r="G10">
-        <v>0.977</v>
+        <v>0.949</v>
       </c>
       <c r="H10">
-        <v>0.965</v>
+        <v>0.925</v>
       </c>
       <c r="I10">
-        <v>0.949</v>
+        <v>0.891</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -3658,28 +3658,28 @@
         <v>59</v>
       </c>
       <c r="B11">
-        <v>0.99</v>
+        <v>0.982</v>
       </c>
       <c r="C11">
-        <v>0.987</v>
+        <v>0.974</v>
       </c>
       <c r="D11">
-        <v>0.982</v>
+        <v>0.962</v>
       </c>
       <c r="E11">
-        <v>0.974</v>
+        <v>0.949</v>
       </c>
       <c r="F11">
-        <v>0.987</v>
+        <v>0.97</v>
       </c>
       <c r="G11">
-        <v>0.981</v>
+        <v>0.954</v>
       </c>
       <c r="H11">
-        <v>0.97</v>
+        <v>0.925</v>
       </c>
       <c r="I11">
-        <v>0.954</v>
+        <v>0.892</v>
       </c>
       <c r="J11">
         <v>124</v>
@@ -3738,25 +3738,25 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E2">
-        <v>0.999</v>
+        <v>0.991</v>
       </c>
       <c r="F2">
-        <v>0.998</v>
+        <v>0.996</v>
       </c>
       <c r="G2">
-        <v>0.998</v>
+        <v>0.99</v>
       </c>
       <c r="H2">
-        <v>0.996</v>
+        <v>0.98</v>
       </c>
       <c r="I2">
-        <v>0.99</v>
+        <v>0.963</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -3770,25 +3770,25 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E3">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F3">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="G3">
-        <v>0.996</v>
+        <v>0.988</v>
       </c>
       <c r="H3">
-        <v>0.994</v>
+        <v>0.977</v>
       </c>
       <c r="I3">
-        <v>0.988</v>
+        <v>0.954</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -3802,25 +3802,25 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E4">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G4">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H4">
-        <v>0.993</v>
+        <v>0.976</v>
       </c>
       <c r="I4">
-        <v>0.987</v>
+        <v>0.951</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -3831,28 +3831,28 @@
         <v>63</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D5">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="E5">
-        <v>0.998</v>
+        <v>0.98</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G5">
-        <v>0.995</v>
+        <v>0.985</v>
       </c>
       <c r="H5">
-        <v>0.992</v>
+        <v>0.972</v>
       </c>
       <c r="I5">
-        <v>0.985</v>
+        <v>0.945</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -3863,28 +3863,28 @@
         <v>64</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="E6">
-        <v>0.994</v>
+        <v>0.967</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G6">
-        <v>0.995</v>
+        <v>0.982</v>
       </c>
       <c r="H6">
-        <v>0.992</v>
+        <v>0.965</v>
       </c>
       <c r="I6">
-        <v>0.982</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -3895,28 +3895,28 @@
         <v>65</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="C7">
-        <v>0.998</v>
+        <v>0.987</v>
       </c>
       <c r="D7">
-        <v>0.994</v>
+        <v>0.974</v>
       </c>
       <c r="E7">
+        <v>0.952</v>
+      </c>
+      <c r="F7">
         <v>0.987</v>
       </c>
-      <c r="F7">
-        <v>0.996</v>
-      </c>
       <c r="G7">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="H7">
-        <v>0.987</v>
+        <v>0.954</v>
       </c>
       <c r="I7">
-        <v>0.975</v>
+        <v>0.917</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -3927,28 +3927,28 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C8">
-        <v>0.998</v>
+        <v>0.988</v>
       </c>
       <c r="D8">
-        <v>0.995</v>
+        <v>0.972</v>
       </c>
       <c r="E8">
+        <v>0.946</v>
+      </c>
+      <c r="F8">
         <v>0.988</v>
       </c>
-      <c r="F8">
-        <v>0.996</v>
-      </c>
       <c r="G8">
-        <v>0.994</v>
+        <v>0.975</v>
       </c>
       <c r="H8">
-        <v>0.988</v>
+        <v>0.952</v>
       </c>
       <c r="I8">
-        <v>0.975</v>
+        <v>0.912</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -3959,28 +3959,28 @@
         <v>67</v>
       </c>
       <c r="B9">
-        <v>0.994</v>
+        <v>0.987</v>
       </c>
       <c r="C9">
-        <v>0.992</v>
+        <v>0.977</v>
       </c>
       <c r="D9">
-        <v>0.987</v>
+        <v>0.958</v>
       </c>
       <c r="E9">
-        <v>0.977</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="F9">
-        <v>0.991</v>
+        <v>0.98</v>
       </c>
       <c r="G9">
-        <v>0.987</v>
+        <v>0.965</v>
       </c>
       <c r="H9">
-        <v>0.98</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="I9">
-        <v>0.965</v>
+        <v>0.901</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -3991,28 +3991,28 @@
         <v>68</v>
       </c>
       <c r="B10">
-        <v>0.986</v>
+        <v>0.971</v>
       </c>
       <c r="C10">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="D10">
-        <v>0.971</v>
+        <v>0.944</v>
       </c>
       <c r="E10">
-        <v>0.96</v>
+        <v>0.922</v>
       </c>
       <c r="F10">
-        <v>0.983</v>
+        <v>0.964</v>
       </c>
       <c r="G10">
-        <v>0.976</v>
+        <v>0.948</v>
       </c>
       <c r="H10">
-        <v>0.964</v>
+        <v>0.924</v>
       </c>
       <c r="I10">
-        <v>0.948</v>
+        <v>0.89</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -4023,28 +4023,28 @@
         <v>69</v>
       </c>
       <c r="B11">
-        <v>0.99</v>
+        <v>0.981</v>
       </c>
       <c r="C11">
-        <v>0.987</v>
+        <v>0.972</v>
       </c>
       <c r="D11">
-        <v>0.981</v>
+        <v>0.96</v>
       </c>
       <c r="E11">
-        <v>0.972</v>
+        <v>0.947</v>
       </c>
       <c r="F11">
-        <v>0.987</v>
+        <v>0.968</v>
       </c>
       <c r="G11">
-        <v>0.98</v>
+        <v>0.951</v>
       </c>
       <c r="H11">
-        <v>0.968</v>
+        <v>0.921</v>
       </c>
       <c r="I11">
-        <v>0.951</v>
+        <v>0.888</v>
       </c>
       <c r="J11">
         <v>124</v>
@@ -4100,28 +4100,28 @@
         <v>70</v>
       </c>
       <c r="B2">
-        <v>0.97</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C2">
-        <v>0.956</v>
+        <v>0.911</v>
       </c>
       <c r="D2">
-        <v>0.9370000000000001</v>
+        <v>0.877</v>
       </c>
       <c r="E2">
-        <v>0.911</v>
+        <v>0.842</v>
       </c>
       <c r="F2">
-        <v>0.967</v>
+        <v>0.929</v>
       </c>
       <c r="G2">
-        <v>0.952</v>
+        <v>0.899</v>
       </c>
       <c r="H2">
-        <v>0.929</v>
+        <v>0.858</v>
       </c>
       <c r="I2">
-        <v>0.899</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -4132,28 +4132,28 @@
         <v>71</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="C3">
-        <v>0.999</v>
+        <v>0.981</v>
       </c>
       <c r="D3">
-        <v>0.994</v>
+        <v>0.959</v>
       </c>
       <c r="E3">
-        <v>0.981</v>
+        <v>0.928</v>
       </c>
       <c r="F3">
-        <v>0.997</v>
+        <v>0.986</v>
       </c>
       <c r="G3">
-        <v>0.995</v>
+        <v>0.969</v>
       </c>
       <c r="H3">
-        <v>0.986</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="I3">
-        <v>0.969</v>
+        <v>0.895</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -4164,28 +4164,28 @@
         <v>72</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.993</v>
       </c>
       <c r="D4">
-        <v>0.998</v>
+        <v>0.98</v>
       </c>
       <c r="E4">
-        <v>0.993</v>
+        <v>0.959</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
       <c r="G4">
-        <v>0.995</v>
+        <v>0.98</v>
       </c>
       <c r="H4">
-        <v>0.99</v>
+        <v>0.958</v>
       </c>
       <c r="I4">
-        <v>0.98</v>
+        <v>0.923</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -4196,28 +4196,28 @@
         <v>73</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D5">
-        <v>0.999</v>
+        <v>0.984</v>
       </c>
       <c r="E5">
-        <v>0.994</v>
+        <v>0.967</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G5">
-        <v>0.996</v>
+        <v>0.981</v>
       </c>
       <c r="H5">
-        <v>0.992</v>
+        <v>0.962</v>
       </c>
       <c r="I5">
-        <v>0.981</v>
+        <v>0.931</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -4231,25 +4231,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E6">
-        <v>0.997</v>
+        <v>0.981</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G6">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="H6">
-        <v>0.992</v>
+        <v>0.969</v>
       </c>
       <c r="I6">
-        <v>0.984</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -4263,25 +4263,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G7">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H7">
-        <v>0.993</v>
+        <v>0.973</v>
       </c>
       <c r="I7">
-        <v>0.986</v>
+        <v>0.947</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -4298,22 +4298,22 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0.987</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G8">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H8">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I8">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -4330,22 +4330,22 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="F9">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H9">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I9">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -4359,25 +4359,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="F10">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G10">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H10">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I10">
-        <v>0.987</v>
+        <v>0.951</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -4394,22 +4394,22 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="F11">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G11">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H11">
-        <v>0.992</v>
+        <v>0.975</v>
       </c>
       <c r="I11">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="J11">
         <v>124</v>
@@ -4465,28 +4465,28 @@
         <v>80</v>
       </c>
       <c r="B2">
-        <v>0.97</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="C2">
-        <v>0.956</v>
+        <v>0.911</v>
       </c>
       <c r="D2">
-        <v>0.9370000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="E2">
-        <v>0.911</v>
+        <v>0.835</v>
       </c>
       <c r="F2">
-        <v>0.967</v>
+        <v>0.93</v>
       </c>
       <c r="G2">
-        <v>0.952</v>
+        <v>0.899</v>
       </c>
       <c r="H2">
-        <v>0.93</v>
+        <v>0.856</v>
       </c>
       <c r="I2">
-        <v>0.899</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -4497,28 +4497,28 @@
         <v>81</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.985</v>
       </c>
       <c r="D3">
-        <v>0.995</v>
+        <v>0.965</v>
       </c>
       <c r="E3">
-        <v>0.985</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F3">
-        <v>0.997</v>
+        <v>0.988</v>
       </c>
       <c r="G3">
-        <v>0.995</v>
+        <v>0.972</v>
       </c>
       <c r="H3">
-        <v>0.988</v>
+        <v>0.9429999999999999</v>
       </c>
       <c r="I3">
-        <v>0.972</v>
+        <v>0.9</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -4529,28 +4529,28 @@
         <v>82</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="D4">
-        <v>0.997</v>
+        <v>0.978</v>
       </c>
       <c r="E4">
+        <v>0.96</v>
+      </c>
+      <c r="F4">
         <v>0.99</v>
       </c>
-      <c r="F4">
-        <v>0.997</v>
-      </c>
       <c r="G4">
-        <v>0.995</v>
+        <v>0.978</v>
       </c>
       <c r="H4">
-        <v>0.99</v>
+        <v>0.957</v>
       </c>
       <c r="I4">
-        <v>0.978</v>
+        <v>0.925</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -4561,28 +4561,28 @@
         <v>83</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="D5">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="E5">
-        <v>0.994</v>
+        <v>0.969</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G5">
-        <v>0.995</v>
+        <v>0.981</v>
       </c>
       <c r="H5">
-        <v>0.991</v>
+        <v>0.963</v>
       </c>
       <c r="I5">
-        <v>0.981</v>
+        <v>0.9320000000000001</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -4596,25 +4596,25 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="E6">
-        <v>0.997</v>
+        <v>0.981</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G6">
-        <v>0.996</v>
+        <v>0.984</v>
       </c>
       <c r="H6">
-        <v>0.992</v>
+        <v>0.969</v>
       </c>
       <c r="I6">
-        <v>0.984</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -4628,25 +4628,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.985</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G7">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H7">
-        <v>0.993</v>
+        <v>0.973</v>
       </c>
       <c r="I7">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -4660,25 +4660,25 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G8">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H8">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I8">
-        <v>0.986</v>
+        <v>0.948</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -4692,25 +4692,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E9">
-        <v>0.999</v>
+        <v>0.988</v>
       </c>
       <c r="F9">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G9">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H9">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I9">
-        <v>0.987</v>
+        <v>0.951</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -4724,25 +4724,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F10">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G10">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H10">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I10">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -4759,22 +4759,22 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.997</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0.988</v>
       </c>
       <c r="F11">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G11">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H11">
-        <v>0.992</v>
+        <v>0.975</v>
       </c>
       <c r="I11">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="J11">
         <v>124</v>
@@ -4830,28 +4830,28 @@
         <v>90</v>
       </c>
       <c r="B2">
-        <v>0.972</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="C2">
-        <v>0.959</v>
+        <v>0.915</v>
       </c>
       <c r="D2">
-        <v>0.9409999999999999</v>
+        <v>0.877</v>
       </c>
       <c r="E2">
-        <v>0.915</v>
+        <v>0.834</v>
       </c>
       <c r="F2">
-        <v>0.968</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="G2">
-        <v>0.954</v>
+        <v>0.904</v>
       </c>
       <c r="H2">
-        <v>0.9340000000000001</v>
+        <v>0.859</v>
       </c>
       <c r="I2">
-        <v>0.904</v>
+        <v>0.806</v>
       </c>
       <c r="J2">
         <v>124</v>
@@ -4862,28 +4862,28 @@
         <v>91</v>
       </c>
       <c r="B3">
-        <v>0.999</v>
+        <v>0.992</v>
       </c>
       <c r="C3">
-        <v>0.997</v>
+        <v>0.982</v>
       </c>
       <c r="D3">
-        <v>0.992</v>
+        <v>0.963</v>
       </c>
       <c r="E3">
-        <v>0.982</v>
+        <v>0.9350000000000001</v>
       </c>
       <c r="F3">
-        <v>0.996</v>
+        <v>0.983</v>
       </c>
       <c r="G3">
-        <v>0.992</v>
+        <v>0.968</v>
       </c>
       <c r="H3">
-        <v>0.983</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I3">
-        <v>0.968</v>
+        <v>0.899</v>
       </c>
       <c r="J3">
         <v>123</v>
@@ -4894,28 +4894,28 @@
         <v>92</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.992</v>
       </c>
       <c r="D4">
-        <v>0.998</v>
+        <v>0.98</v>
       </c>
       <c r="E4">
-        <v>0.992</v>
+        <v>0.962</v>
       </c>
       <c r="F4">
-        <v>0.997</v>
+        <v>0.991</v>
       </c>
       <c r="G4">
-        <v>0.995</v>
+        <v>0.98</v>
       </c>
       <c r="H4">
-        <v>0.991</v>
+        <v>0.959</v>
       </c>
       <c r="I4">
-        <v>0.98</v>
+        <v>0.927</v>
       </c>
       <c r="J4">
         <v>123</v>
@@ -4926,28 +4926,28 @@
         <v>93</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="D5">
-        <v>0.998</v>
+        <v>0.988</v>
       </c>
       <c r="E5">
-        <v>0.995</v>
+        <v>0.973</v>
       </c>
       <c r="F5">
-        <v>0.997</v>
+        <v>0.99</v>
       </c>
       <c r="G5">
-        <v>0.995</v>
+        <v>0.98</v>
       </c>
       <c r="H5">
-        <v>0.99</v>
+        <v>0.962</v>
       </c>
       <c r="I5">
-        <v>0.98</v>
+        <v>0.931</v>
       </c>
       <c r="J5">
         <v>123</v>
@@ -4958,28 +4958,28 @@
         <v>94</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="D6">
-        <v>0.999</v>
+        <v>0.99</v>
       </c>
       <c r="E6">
-        <v>0.996</v>
+        <v>0.977</v>
       </c>
       <c r="F6">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G6">
-        <v>0.996</v>
+        <v>0.983</v>
       </c>
       <c r="H6">
-        <v>0.992</v>
+        <v>0.968</v>
       </c>
       <c r="I6">
-        <v>0.983</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J6">
         <v>124</v>
@@ -4993,25 +4993,25 @@
         <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>0.998</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.994</v>
       </c>
       <c r="E7">
-        <v>0.998</v>
+        <v>0.984</v>
       </c>
       <c r="F7">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G7">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H7">
-        <v>0.993</v>
+        <v>0.973</v>
       </c>
       <c r="I7">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J7">
         <v>123</v>
@@ -5022,28 +5022,28 @@
         <v>96</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D8">
-        <v>0.999</v>
+        <v>0.995</v>
       </c>
       <c r="E8">
-        <v>0.999</v>
+        <v>0.985</v>
       </c>
       <c r="F8">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G8">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H8">
-        <v>0.992</v>
+        <v>0.974</v>
       </c>
       <c r="I8">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J8">
         <v>123</v>
@@ -5057,25 +5057,25 @@
         <v>1</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.995</v>
       </c>
       <c r="E9">
-        <v>0.999</v>
+        <v>0.986</v>
       </c>
       <c r="F9">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G9">
-        <v>0.996</v>
+        <v>0.986</v>
       </c>
       <c r="H9">
-        <v>0.993</v>
+        <v>0.974</v>
       </c>
       <c r="I9">
-        <v>0.986</v>
+        <v>0.949</v>
       </c>
       <c r="J9">
         <v>123</v>
@@ -5089,25 +5089,25 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E10">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F10">
-        <v>0.997</v>
+        <v>0.993</v>
       </c>
       <c r="G10">
-        <v>0.996</v>
+        <v>0.987</v>
       </c>
       <c r="H10">
-        <v>0.993</v>
+        <v>0.975</v>
       </c>
       <c r="I10">
-        <v>0.987</v>
+        <v>0.951</v>
       </c>
       <c r="J10">
         <v>123</v>
@@ -5121,25 +5121,25 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>0.996</v>
       </c>
       <c r="E11">
-        <v>0.999</v>
+        <v>0.987</v>
       </c>
       <c r="F11">
-        <v>0.997</v>
+        <v>0.992</v>
       </c>
       <c r="G11">
-        <v>0.995</v>
+        <v>0.987</v>
       </c>
       <c r="H11">
-        <v>0.992</v>
+        <v>0.975</v>
       </c>
       <c r="I11">
-        <v>0.987</v>
+        <v>0.95</v>
       </c>
       <c r="J11">
         <v>124</v>
